--- a/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Pre_cal_data/Basic_DG_Data.xlsx
+++ b/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Pre_cal_data/Basic_DG_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woong\Desktop\Workfolder\Pyomo\NR_with_Matpower\Input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Practice\Network_Reconfiguration\Distribution\Matpower\33Bus_Advanced\Pre_cal_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717AF34B-67DE-476E-8A85-D9949B7C58D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162BB8D0-CE5C-4EA6-B43F-8E007F5F03E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{70F6DB4F-4EBD-4E95-94C7-32058E10BD7D}"/>
+    <workbookView xWindow="57510" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{70F6DB4F-4EBD-4E95-94C7-32058E10BD7D}"/>
   </bookViews>
   <sheets>
     <sheet name="DG_Data" sheetId="2" r:id="rId1"/>
@@ -1088,13 +1088,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA6144A-3769-4278-8D99-15C36E662861}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1224,61 +1224,191 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -1291,13 +1421,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9384AF9-927C-46CC-8C74-8EE76C77315A}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>

--- a/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Pre_cal_data/Basic_DG_Data.xlsx
+++ b/Network_Reconfiguration/Distribution/Matpower/33Bus_Advanced/Pre_cal_data/Basic_DG_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Practice\Network_Reconfiguration_v3\Distribution\Matpower\33Bus_Advanced\Pre_cal_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BAECD4-1E52-4227-AD54-8BD37304F097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F754684C-2B01-4886-A50F-AA36DFD3DF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{70F6DB4F-4EBD-4E95-94C7-32058E10BD7D}"/>
+    <workbookView xWindow="44020" yWindow="2450" windowWidth="28800" windowHeight="15370" xr2:uid="{70F6DB4F-4EBD-4E95-94C7-32058E10BD7D}"/>
   </bookViews>
   <sheets>
     <sheet name="DG_Data" sheetId="2" r:id="rId1"/>
@@ -1100,12 +1100,12 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1235,687 +1235,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>100</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>-1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>-1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -1932,9 +1306,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +1331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
